--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9918810081198113</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8269811559540743</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7692773503791303</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9974770548165242</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9862111742207265</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0542917360873419</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.156977806813627</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2819497114528352</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0573721699962264</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1696609407245308</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3350416664384785</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2330058713580881</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005266373111474</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2429254136904494</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P2" t="n">
-        <v>127.8267665070887</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q2" t="n">
-        <v>202.178191824049</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9918834458963673</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8269809590290558</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7693125732467281</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9974796346145063</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9862153092293666</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05427543466428645</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.156979123652133</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2819066680959214</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05731350498465317</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1696100626101054</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3349042358186274</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2329708880188391</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005264791851005</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O3" t="n">
-        <v>0.242888941038023</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P3" t="n">
-        <v>127.827367109391</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1787924263513</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9918861495330489</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8269807375894216</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7693504563073318</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974825082963648</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9862198440222211</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05425735543334857</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.156980604419986</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2818603739066698</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05724815700754431</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1695542654571071</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3347513398384391</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2329320833061615</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005263038140725</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.24284848432839</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P4" t="n">
-        <v>127.8280334234548</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.179458740415</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9918891072115156</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8269804863057092</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7693943381199927</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9974856763359815</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9862249490607287</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05423757742382283</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.156982284755328</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2818067490699314</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05717611528874651</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1694914518680816</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.334583478293406</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2328896249810687</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005261119646585</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2428042184644971</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P5" t="n">
-        <v>127.8287626007251</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.1801879176853</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9918924243778239</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8269802198821427</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7694423713566428</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974892093513881</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9862306009682857</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05421539551744482</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.156984066330945</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2817480510737186</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0570957739631288</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1694219094742352</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3343945431154332</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2328419968936979</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005258967971141</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2427545627508432</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P6" t="n">
-        <v>127.8295807214676</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.1810060384278</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9918961050094169</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8269798900745692</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7694953040883755</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974931389575082</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9862368624994248</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05419078311703455</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.156986271755707</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2816833657536472</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05700641410235123</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.169344866129107</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3341909410655732</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.232789138743702</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005256580534432</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2426994543199705</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P7" t="n">
-        <v>127.8304888763769</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.1819141933372</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9919001701500698</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8269795265600366</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7695542733691747</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9974974732078514</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9862437941008172</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05416359950277032</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.15698870257906</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2816113035970568</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0569078525683442</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1692595780827005</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3339568615672971</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2327307446444717</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005253943686441</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2426385742630436</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P8" t="n">
-        <v>127.8314923840959</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.1829177010561</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9919046950186942</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8269791677257637</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7696195565637849</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9975022898446837</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9862514869412423</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05413334168544395</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.156991102105495</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2815315256562552</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05679832148976146</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1691649235730083</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3337040168600799</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2326657295036034</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005251008636523</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2425707912930286</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P9" t="n">
-        <v>127.8326099712698</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.1840352882301</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9919097562340459</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8269786977317078</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7696936138728907</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9975076483043491</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9862601156632106</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05409949731508228</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.156994244957911</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2814410254952711</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05667646927479792</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1690587537576934</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3334152844073255</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2325929863841175</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N10" t="n">
-        <v>1.005247725686024</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2424949513483472</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8338607698917</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.1852860868519</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9919153163963774</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8269781772565563</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7697745500570576</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9975135930758026</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9862696288163317</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05406231648396911</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.156997725377645</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2813421191511847</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05654128423762428</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1689417016944045</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3331017881641789</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2325130458360758</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005244119094242</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2424116075656756</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P11" t="n">
-        <v>127.835235777624</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.1866610945842</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9919215034687762</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8269775886314283</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7698637921202174</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9975201869366934</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9862801532049207</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0540209435023503</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.157001661516587</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2812330627841626</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05639133880462847</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1688122071531635</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3327475140336297</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2324240596460493</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005240105858091</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2423188330493129</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P12" t="n">
-        <v>127.8367669299465</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.1881922469068</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9919283521441865</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8269769284155062</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7699641194156999</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9975275040525005</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9862918974515619</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05397514637834604</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>1.157006076383499</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2811104599445255</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05622494644116473</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1686677031928451</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3323580401103184</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2323255181385507</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005235663474041</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2422160964258309</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P13" t="n">
-        <v>127.8384631812386</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.1898884981988</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9919359578029885</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8269761981750833</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7700747466659339</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E14" t="n">
-        <v>0.997535620580123</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9863048903894551</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05392428730291643</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>1.157010959504569</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I14" t="n">
-        <v>0.280975270264043</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05604037532737777</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1685078350430082</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.331920145019206</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2322160358436007</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005230730073737</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2421019532429253</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P14" t="n">
-        <v>127.8403486064892</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.1917739234494</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9919443941166965</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8269753529400974</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.770198196489406</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E15" t="n">
-        <v>0.997544621618098</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9863193399442032</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05386787363430443</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>1.157016611594811</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2808244110303957</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05583569030915896</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1683300443383575</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3314384819981224</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2320945359854567</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005225257870251</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2419752808842807</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P15" t="n">
-        <v>127.8424420304737</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q15" t="n">
-        <v>202.1938673474339</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9919537601837926</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8269744078812518</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7703354589944668</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9975545971841155</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9863353720520474</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05380524270050712</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>1.157022931207663</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2806566723027122</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05560884437008869</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1681327815298943</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3309007266409151</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2319595712629835</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005219182583486</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2418345704341564</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P16" t="n">
-        <v>127.8447687371947</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.1961940541549</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9919641492259481</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8269733032912374</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7704884300314081</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9975656698685521</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9863532027826888</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05373577112777564</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.157030317606176</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2804697372974273</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05535704978574002</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1679133880454268</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3303063725414943</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2318097735812182</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005212443745331</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2416783955549544</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P17" t="n">
-        <v>127.8473527404478</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.1987780574081</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9919756276953263</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8269720247459514</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7706569239999277</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9975779010473053</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9863728721259351</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05365901455019025</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>1.15703886724439</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2802638328234465</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05507891085855371</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1676713718410001</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3296441300566745</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2316441550097698</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00520499825168</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2415057262580417</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P18" t="n">
-        <v>127.8502115977069</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.2016369146671</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9919883572090442</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8269705777975859</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7708452793818926</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9975914732413659</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9863947674146923</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05357389223334445</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.157048542994773</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2800336571311905</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05477027703251321</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1674019670818518</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3289062298925762</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2314603469999655</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N19" t="n">
-        <v>1.005196741269809</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2413140931607251</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P19" t="n">
-        <v>127.8533868295374</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2048121464977</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9920024389636286</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8269689037225881</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7710531007212594</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9976064990285171</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9864189723527645</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05347972747559776</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.157059737541992</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2797796934793146</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05442858827113716</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1671041438567822</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.328092305509405</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2312568430892322</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N20" t="n">
-        <v>1.005187607158727</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2411019256672007</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P20" t="n">
-        <v>127.8569052451608</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.2083305621211</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9920180449636374</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8269669978683483</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7712853062367651</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9976231393736401</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9864458811518196</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05337537008167991</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.157072481998069</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2794959316631159</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05405018420772346</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1667730516931319</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3271814895915981</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2310311019791056</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N21" t="n">
-        <v>1.005177484347911</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2408665742906675</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P21" t="n">
-        <v>127.8608117476855</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.2122370646458</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9920353103937252</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8269647795375233</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7715434159747554</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9976415426847787</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9864757041873859</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05325991607118293</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.15708731598651</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2791805141422565</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05363169002003761</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1664061020811471</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3261716253002996</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2307810999002798</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005166285150016</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2406059291057704</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P22" t="n">
-        <v>127.8651425488594</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.2165678658196</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9920544047665942</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8269622168501327</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7718289163636699</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9976618860239753</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9865086806573584</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05313223191188652</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.157104452688891</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2788316244584461</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05316907928940186</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.166000351873924</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3250500879776261</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2305042991180132</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005153899610858</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2403173443411461</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P23" t="n">
-        <v>127.8699430617926</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.2213683787529</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9920754857675752</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8269592019510493</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7721461865101528</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E24" t="n">
-        <v>0.997684375702549</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.986545218163761</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05299126316125782</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.157124613332944</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2784439112174599</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05265766046399951</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1655507858407297</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3238046300310562</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2301983126811702</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005140225448059</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2399983314282075</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P24" t="n">
-        <v>127.8752564500652</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.2266817670255</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.992098759636112</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8269557035754864</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7724985432988385</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E25" t="n">
-        <v>0.997709203955366</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9865856583225555</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0528356306951854</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.157148006986441</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2780133210909091</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05209306209275466</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1650532006587895</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3224202377985534</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2298600241346576</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005125128884684</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O25" t="n">
-        <v>0.239645641237916</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P25" t="n">
-        <v>127.8811389841773</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.2325643011375</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_0</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.992124454428385</v>
+        <v>0.9999975731087714</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8269516426427839</v>
+        <v>0.6760506779894961</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7728891845175597</v>
+        <v>0.999981991363849</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9977366354636678</v>
+        <v>0.9999993123622546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9866304069656648</v>
+        <v>0.9999935585227048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05266380950094184</v>
+        <v>1.440707469570967e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>1.157175162462122</v>
+        <v>0.1923103114274961</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2775359462901211</v>
+        <v>5.051297559990977e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05146926528264388</v>
+        <v>3.76994131634058e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1645026028771061</v>
+        <v>2.714145845812518e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3208833363975564</v>
+        <v>0.000306668777866626</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2294859679826674</v>
+        <v>0.001200294742790689</v>
       </c>
       <c r="N26" t="n">
-        <v>1.005108461992399</v>
+        <v>1.000001574199716</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2392556607411326</v>
+        <v>0.001251393774943939</v>
       </c>
       <c r="P26" t="n">
-        <v>127.887653572154</v>
+        <v>148.9007525334214</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.2390788891142</v>
+        <v>223.2521778503816</v>
       </c>
     </row>
   </sheetData>
